--- a/branches/dev_v2/Brewery Coordinates and Prim Counts.xlsx
+++ b/branches/dev_v2/Brewery Coordinates and Prim Counts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Building</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>House</t>
+  </si>
+  <si>
+    <t>What are you drinking</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>(mega prims)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>(some textures fail)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>(too hard to get too)</t>
+  </si>
+  <si>
+    <t>permissions!</t>
+  </si>
+  <si>
+    <t>textures</t>
+  </si>
+  <si>
+    <t>copy of other</t>
   </si>
 </sst>
 </file>
@@ -404,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -425,8 +458,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +478,14 @@
       <c r="E2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -459,16 +501,28 @@
       <c r="E3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -484,8 +538,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -501,8 +558,14 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -518,8 +581,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -535,8 +601,14 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -552,8 +624,11 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -569,53 +644,106 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/branches/dev_v2/Brewery Coordinates and Prim Counts.xlsx
+++ b/branches/dev_v2/Brewery Coordinates and Prim Counts.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
         <v>128.09200000000001</v>
       </c>
       <c r="C2">
-        <v>39.939</v>
+        <v>39.914999999999999</v>
       </c>
       <c r="D2">
         <v>152.86500000000001</v>
